--- a/data/The Doers.xlsx
+++ b/data/The Doers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="Facebook_Geography" sheetId="7" r:id="rId7"/>
     <sheet name="Fb_Insta" sheetId="9" r:id="rId8"/>
     <sheet name="Audio" sheetId="10" r:id="rId9"/>
-    <sheet name="Audio_Geograpgy" sheetId="13" r:id="rId10"/>
-    <sheet name="Instagram_Geography" sheetId="5" r:id="rId11"/>
-    <sheet name="InstagramAge" sheetId="6" r:id="rId12"/>
+    <sheet name="Audio_play" sheetId="13" r:id="rId10"/>
+    <sheet name="Audio_Geography" sheetId="14" r:id="rId11"/>
+    <sheet name="Instagram_Geography" sheetId="5" r:id="rId12"/>
+    <sheet name="InstagramAge" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1990">
   <si>
     <t>ageGroup</t>
   </si>
@@ -5954,7 +5955,52 @@
     <t>App</t>
   </si>
   <si>
-    <t>Percent of play</t>
+    <t>Percent of Plays</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Geo</t>
   </si>
 </sst>
 </file>
@@ -6480,15 +6526,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6563,6 +6609,246 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B2">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.63780000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6628,12 +6914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6768,7 +7054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28373,13 +28661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/The Doers.xlsx
+++ b/data/The Doers.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E7F07A-CE40-4E9A-ADC5-1CD0192136E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F509D7F-D0F2-4CB9-9ACE-0DEDA9722ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
     <sheet name="Geography" sheetId="2" r:id="rId2"/>
     <sheet name="Tiktok_Age" sheetId="11" r:id="rId3"/>
-    <sheet name="Tiktok_Geography" sheetId="12" r:id="rId4"/>
-    <sheet name="view" sheetId="3" r:id="rId5"/>
-    <sheet name="FacebookAge" sheetId="4" r:id="rId6"/>
-    <sheet name="Facebook_Geography" sheetId="7" r:id="rId7"/>
-    <sheet name="Fb_Insta" sheetId="9" r:id="rId8"/>
-    <sheet name="Audio" sheetId="10" r:id="rId9"/>
-    <sheet name="Audio_play" sheetId="13" r:id="rId10"/>
-    <sheet name="Audio_Geography" sheetId="14" r:id="rId11"/>
-    <sheet name="Instagram_Geography" sheetId="5" r:id="rId12"/>
-    <sheet name="InstagramAge" sheetId="6" r:id="rId13"/>
+    <sheet name="Tiktok_Follower" sheetId="15" r:id="rId4"/>
+    <sheet name="Tiktok_Geography" sheetId="12" r:id="rId5"/>
+    <sheet name="view" sheetId="3" r:id="rId6"/>
+    <sheet name="FacebookAge" sheetId="4" r:id="rId7"/>
+    <sheet name="Facebook_Geography" sheetId="7" r:id="rId8"/>
+    <sheet name="Fb_Insta" sheetId="9" r:id="rId9"/>
+    <sheet name="Audio" sheetId="10" r:id="rId10"/>
+    <sheet name="Audio_play" sheetId="13" r:id="rId11"/>
+    <sheet name="Audio_Geography" sheetId="14" r:id="rId12"/>
+    <sheet name="Instagram_Geography" sheetId="5" r:id="rId13"/>
+    <sheet name="InstagramAge" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1991">
   <si>
     <t>ageGroup</t>
   </si>
@@ -6040,10 +6041,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6561,6 +6563,257 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B3">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B4">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B5">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B6">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B7">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B9">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B10">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B11">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B12">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B13">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B14">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B15">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B16">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B17">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B18">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B19">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B20">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B21">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B22">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B23">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B24">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B25">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B26">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B27">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B28">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B29">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6646,11 +6899,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6886,7 +7139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6952,7 +7205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8049,6 +8302,509 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B6EE9-9EF2-4FD2-9E87-2FB6A0749B42}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44686</v>
+      </c>
+      <c r="B2">
+        <v>12438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44687</v>
+      </c>
+      <c r="B3">
+        <v>12437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44688</v>
+      </c>
+      <c r="B4">
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44689</v>
+      </c>
+      <c r="B5">
+        <v>12438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44690</v>
+      </c>
+      <c r="B6">
+        <v>12432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44691</v>
+      </c>
+      <c r="B7">
+        <v>12426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44692</v>
+      </c>
+      <c r="B8">
+        <v>12423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44693</v>
+      </c>
+      <c r="B9">
+        <v>12434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44694</v>
+      </c>
+      <c r="B10">
+        <v>12436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44695</v>
+      </c>
+      <c r="B11">
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44696</v>
+      </c>
+      <c r="B12">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44697</v>
+      </c>
+      <c r="B13">
+        <v>12442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44698</v>
+      </c>
+      <c r="B14">
+        <v>12449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44699</v>
+      </c>
+      <c r="B15">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44700</v>
+      </c>
+      <c r="B16">
+        <v>12456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44701</v>
+      </c>
+      <c r="B17">
+        <v>12456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44702</v>
+      </c>
+      <c r="B18">
+        <v>12521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44703</v>
+      </c>
+      <c r="B19">
+        <v>12603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44704</v>
+      </c>
+      <c r="B20">
+        <v>12661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44705</v>
+      </c>
+      <c r="B21">
+        <v>12661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44706</v>
+      </c>
+      <c r="B22">
+        <v>12754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44707</v>
+      </c>
+      <c r="B23">
+        <v>12763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44708</v>
+      </c>
+      <c r="B24">
+        <v>12772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44709</v>
+      </c>
+      <c r="B25">
+        <v>12785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44710</v>
+      </c>
+      <c r="B26">
+        <v>12785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44711</v>
+      </c>
+      <c r="B27">
+        <v>12830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B28">
+        <v>12856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B29">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44714</v>
+      </c>
+      <c r="B30">
+        <v>12964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44715</v>
+      </c>
+      <c r="B31">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44716</v>
+      </c>
+      <c r="B32">
+        <v>12972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44717</v>
+      </c>
+      <c r="B33">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B34">
+        <v>12992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44719</v>
+      </c>
+      <c r="B35">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44720</v>
+      </c>
+      <c r="B36">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44721</v>
+      </c>
+      <c r="B37">
+        <v>12995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B38">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44723</v>
+      </c>
+      <c r="B39">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44724</v>
+      </c>
+      <c r="B40">
+        <v>12986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44725</v>
+      </c>
+      <c r="B41">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44726</v>
+      </c>
+      <c r="B42">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44727</v>
+      </c>
+      <c r="B43">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44728</v>
+      </c>
+      <c r="B44">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B45">
+        <v>13001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44730</v>
+      </c>
+      <c r="B46">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44731</v>
+      </c>
+      <c r="B47">
+        <v>12998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B48">
+        <v>13001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B49">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B50">
+        <v>13175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B51">
+        <v>13214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B52">
+        <v>13228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B53">
+        <v>13233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44738</v>
+      </c>
+      <c r="B54">
+        <v>13239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B55">
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B56">
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B57">
+        <v>13263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B58">
+        <v>13274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B59">
+        <v>13285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44744</v>
+      </c>
+      <c r="B60">
+        <v>13292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44745</v>
+      </c>
+      <c r="B61">
+        <v>13299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -8111,7 +8867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C721"/>
   <sheetViews>
@@ -16062,7 +16818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -16206,7 +16962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -16312,7 +17068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C1125"/>
   <sheetViews>
@@ -28693,255 +29449,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B2">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B3">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B4">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B5">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B6">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B7">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B8">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B9">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B10">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B11">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B12">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B13">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B14">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B15">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B16">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B17">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B18">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B19">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B20">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B21">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B22">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B23">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B24">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B25">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B26">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B27">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B28">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B29">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/The Doers.xlsx
+++ b/data/The Doers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F509D7F-D0F2-4CB9-9ACE-0DEDA9722ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC71C2-6321-4408-A9EB-E46A6F77C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -5906,9 +5906,6 @@
     <t>2022-07</t>
   </si>
   <si>
-    <t>Distribution</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -6006,6 +6003,9 @@
   </si>
   <si>
     <t>Plays</t>
+  </si>
+  <si>
+    <t>Views</t>
   </si>
 </sst>
 </file>
@@ -6578,10 +6578,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1" t="s">
         <v>1989</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6830,18 +6830,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1" t="s">
         <v>1972</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B2">
         <v>127</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B6">
         <v>27</v>
@@ -6916,18 +6916,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B2">
         <v>162</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -8267,7 +8267,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8277,12 +8277,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1957</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B2" s="2">
         <v>0.74</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B3" s="2">
         <v>0.26</v>
@@ -8305,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B6EE9-9EF2-4FD2-9E87-2FB6A0749B42}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
@@ -8808,23 +8808,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B2" s="2">
         <v>0.01</v>
@@ -8832,7 +8835,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
@@ -8840,7 +8843,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
@@ -8848,7 +8851,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B5" s="2">
         <v>0.02</v>
@@ -8856,7 +8859,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B6" s="2">
         <v>0.81</v>

--- a/data/The Doers.xlsx
+++ b/data/The Doers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC71C2-6321-4408-A9EB-E46A6F77C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A45081-7590-466C-A3BD-90D81923A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1990">
   <si>
     <t>ageGroup</t>
   </si>
@@ -5910,9 +5910,6 @@
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Top territories</t>
   </si>
   <si>
     <t>Japan</t>
@@ -6578,10 +6575,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1" t="s">
         <v>1988</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6830,18 +6827,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1" t="s">
         <v>1971</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B2">
         <v>127</v>
@@ -6852,7 +6849,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B3">
         <v>49</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -6874,7 +6871,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B6">
         <v>27</v>
@@ -6916,18 +6913,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B2">
         <v>162</v>
@@ -6938,7 +6935,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -6949,7 +6946,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -6960,7 +6957,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -6982,7 +6979,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -6993,7 +6990,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -7004,7 +7001,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7015,7 +7012,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7026,7 +7023,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7037,7 +7034,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7048,7 +7045,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7081,7 +7078,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7092,7 +7089,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7103,7 +7100,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7125,7 +7122,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -8277,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8808,9 +8805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8819,7 +8814,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1959</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1927</v>
@@ -8827,7 +8822,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B2" s="2">
         <v>0.01</v>
@@ -8835,7 +8830,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
@@ -8843,7 +8838,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
@@ -8851,7 +8846,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B5" s="2">
         <v>0.02</v>
@@ -8859,7 +8854,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B6" s="2">
         <v>0.81</v>

--- a/data/The Doers.xlsx
+++ b/data/The Doers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="view" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="InstagramAge" sheetId="6" r:id="rId13"/>
     <sheet name="Instagram_Geography" sheetId="5" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -6037,10 +6037,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -14300,7 +14299,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14637,7 +14636,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15012,7 +15011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -16180,7 +16179,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16200,7 +16199,7 @@
       <c r="A2" t="s">
         <v>1959</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.74</v>
       </c>
     </row>
@@ -16208,7 +16207,7 @@
       <c r="A3" t="s">
         <v>1960</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.26</v>
       </c>
     </row>
@@ -16288,7 +16287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -16307,7 +16306,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44686</v>
       </c>
       <c r="B2">
@@ -16315,7 +16314,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44687</v>
       </c>
       <c r="B3">
@@ -16323,7 +16322,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44688</v>
       </c>
       <c r="B4">
@@ -16331,7 +16330,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44689</v>
       </c>
       <c r="B5">
@@ -16339,7 +16338,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44690</v>
       </c>
       <c r="B6">
@@ -16347,7 +16346,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44691</v>
       </c>
       <c r="B7">
@@ -16355,7 +16354,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44692</v>
       </c>
       <c r="B8">
@@ -16363,7 +16362,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44693</v>
       </c>
       <c r="B9">
@@ -16371,7 +16370,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44694</v>
       </c>
       <c r="B10">
@@ -16379,7 +16378,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44695</v>
       </c>
       <c r="B11">
@@ -16387,7 +16386,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44696</v>
       </c>
       <c r="B12">
@@ -16395,7 +16394,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44697</v>
       </c>
       <c r="B13">
@@ -16403,7 +16402,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44698</v>
       </c>
       <c r="B14">
@@ -16411,7 +16410,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44699</v>
       </c>
       <c r="B15">
@@ -16419,7 +16418,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44700</v>
       </c>
       <c r="B16">
@@ -16427,7 +16426,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>44701</v>
       </c>
       <c r="B17">
@@ -16435,7 +16434,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>44702</v>
       </c>
       <c r="B18">
@@ -16443,7 +16442,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44703</v>
       </c>
       <c r="B19">
@@ -16451,7 +16450,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44704</v>
       </c>
       <c r="B20">
@@ -16459,7 +16458,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44705</v>
       </c>
       <c r="B21">
@@ -16467,7 +16466,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44706</v>
       </c>
       <c r="B22">
@@ -16475,7 +16474,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>44707</v>
       </c>
       <c r="B23">
@@ -16483,7 +16482,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>44708</v>
       </c>
       <c r="B24">
@@ -16491,7 +16490,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>44709</v>
       </c>
       <c r="B25">
@@ -16499,7 +16498,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44710</v>
       </c>
       <c r="B26">
@@ -16507,7 +16506,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>44711</v>
       </c>
       <c r="B27">
@@ -16515,7 +16514,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>44712</v>
       </c>
       <c r="B28">
@@ -16523,7 +16522,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>44713</v>
       </c>
       <c r="B29">
@@ -16531,7 +16530,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>44714</v>
       </c>
       <c r="B30">
@@ -16539,7 +16538,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>44715</v>
       </c>
       <c r="B31">
@@ -16547,7 +16546,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>44716</v>
       </c>
       <c r="B32">
@@ -16555,7 +16554,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>44717</v>
       </c>
       <c r="B33">
@@ -16563,7 +16562,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>44718</v>
       </c>
       <c r="B34">
@@ -16571,7 +16570,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>44719</v>
       </c>
       <c r="B35">
@@ -16579,7 +16578,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>44720</v>
       </c>
       <c r="B36">
@@ -16587,7 +16586,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>44721</v>
       </c>
       <c r="B37">
@@ -16595,7 +16594,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>44722</v>
       </c>
       <c r="B38">
@@ -16603,7 +16602,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>44723</v>
       </c>
       <c r="B39">
@@ -16611,7 +16610,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>44724</v>
       </c>
       <c r="B40">
@@ -16619,7 +16618,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>44725</v>
       </c>
       <c r="B41">
@@ -16627,7 +16626,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>44726</v>
       </c>
       <c r="B42">
@@ -16635,7 +16634,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>44727</v>
       </c>
       <c r="B43">
@@ -16643,7 +16642,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>44728</v>
       </c>
       <c r="B44">
@@ -16651,7 +16650,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44729</v>
       </c>
       <c r="B45">
@@ -16659,7 +16658,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>44730</v>
       </c>
       <c r="B46">
@@ -16667,7 +16666,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>44731</v>
       </c>
       <c r="B47">
@@ -16675,7 +16674,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>44732</v>
       </c>
       <c r="B48">
@@ -16683,7 +16682,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>44733</v>
       </c>
       <c r="B49">
@@ -16691,7 +16690,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>44734</v>
       </c>
       <c r="B50">
@@ -16699,7 +16698,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>44735</v>
       </c>
       <c r="B51">
@@ -16707,7 +16706,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>44736</v>
       </c>
       <c r="B52">
@@ -16715,7 +16714,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>44737</v>
       </c>
       <c r="B53">
@@ -16723,7 +16722,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>44738</v>
       </c>
       <c r="B54">
@@ -16731,7 +16730,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>44739</v>
       </c>
       <c r="B55">
@@ -16739,7 +16738,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>44740</v>
       </c>
       <c r="B56">
@@ -16747,7 +16746,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>44741</v>
       </c>
       <c r="B57">
@@ -16755,7 +16754,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>44742</v>
       </c>
       <c r="B58">
@@ -16763,7 +16762,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>44743</v>
       </c>
       <c r="B59">
@@ -16771,7 +16770,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>44744</v>
       </c>
       <c r="B60">
@@ -16779,7 +16778,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>44745</v>
       </c>
       <c r="B61">
